--- a/数据整理/stocks/A股/科创板/688551-科威尔.xlsx
+++ b/数据整理/stocks/A股/科创板/688551-科威尔.xlsx
@@ -1,174 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q2" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>011851</t>
-  </si>
-  <si>
-    <t>007202</t>
-  </si>
-  <si>
-    <t>420005</t>
-  </si>
-  <si>
-    <t>001822</t>
-  </si>
-  <si>
-    <t>001933</t>
-  </si>
-  <si>
-    <t>011852</t>
-  </si>
-  <si>
-    <t>天弘先进制造混合型证券投资基金A</t>
-  </si>
-  <si>
-    <t>天弘优质成长企业精选混合</t>
-  </si>
-  <si>
-    <t>天弘周期策略混合</t>
-  </si>
-  <si>
-    <t>华商智能生活灵活配置混合</t>
-  </si>
-  <si>
-    <t>华商新兴活力灵活配置混合</t>
-  </si>
-  <si>
-    <t>天弘先进制造混合型证券投资基金C</t>
-  </si>
-  <si>
-    <t>6.36</t>
-  </si>
-  <si>
-    <t>4.21</t>
-  </si>
-  <si>
-    <t>3.31</t>
-  </si>
-  <si>
-    <t>1.78</t>
-  </si>
-  <si>
-    <t>1.08</t>
-  </si>
-  <si>
-    <t>0.27</t>
-  </si>
-  <si>
-    <t>72.95</t>
-  </si>
-  <si>
-    <t>90.95</t>
-  </si>
-  <si>
-    <t>86.83</t>
-  </si>
-  <si>
-    <t>91.61</t>
-  </si>
-  <si>
-    <t>92.06</t>
-  </si>
-  <si>
-    <t>5.45</t>
-  </si>
-  <si>
-    <t>4.38</t>
-  </si>
-  <si>
-    <t>5.28</t>
-  </si>
-  <si>
-    <t>5.47</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>0.3466</t>
-  </si>
-  <si>
-    <t>0.1844</t>
-  </si>
-  <si>
-    <t>0.1748</t>
-  </si>
-  <si>
-    <t>0.0974</t>
-  </si>
-  <si>
-    <t>0.0540</t>
-  </si>
-  <si>
-    <t>0.0147</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -191,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -493,193 +446,493 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011851</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3466</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007202</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1844</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>420005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1748</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001822</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0974</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001933</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商新兴活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011852</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>72.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001822</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4173</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011851</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1598</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001933</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商新兴活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1494</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011852</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688551-科威尔.xlsx
+++ b/数据整理/stocks/A股/科创板/688551-科威尔.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -935,4 +936,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688551-科威尔.xlsx
+++ b/数据整理/stocks/A股/科创板/688551-科威尔.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -944,7 +945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -955,17 +956,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -975,14 +996,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.76</v>
+          <t>011851</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3150</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -991,13 +1034,233 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>001822</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2988</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>630008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商策略精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1601</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001933</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商新兴活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0804</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011852</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>6</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.87</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688551-科威尔.xlsx
+++ b/数据整理/stocks/A股/科创板/688551-科威尔.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1191,7 +1192,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1202,17 +1203,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1222,14 +1243,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.91</v>
+          <t>001933</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商新兴活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2778</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1238,14 +1281,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.76</v>
+          <t>630008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商策略精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1724</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1254,13 +1319,173 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>011851</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1368</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011852</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>6</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.87</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688551-科威尔.xlsx
+++ b/数据整理/stocks/A股/科创板/688551-科威尔.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1400,7 +1401,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1411,17 +1412,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1431,14 +1452,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.62</v>
+          <t>630008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商策略精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2405</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1447,14 +1490,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.91</v>
+          <t>011851</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1428</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1463,14 +1528,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>011852</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.76</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="5">
@@ -1479,13 +1650,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.87</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688551-科威尔.xlsx
+++ b/数据整理/stocks/A股/科创板/688551-科威尔.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,285 +455,287 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011851</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>天弘先进制造混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.36</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>72.95</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.45</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3466</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007202</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>天弘优质成长企业精选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.95</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1844</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>420005</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>天弘周期策略混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>86.83</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1748</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001822</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华商智能生活灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.61</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.47</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0974</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001933</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华商新兴活力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.06</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0540</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>011852</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>天弘先进制造混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>72.95</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.45</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0147</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
+      <c r="D6" t="n">
+        <v>0.87</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>630008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商策略精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2405</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011851</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1428</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011852</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -760,7 +762,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -790,36 +792,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001822</t>
+          <t>001933</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华商智能生活灵活配置混合</t>
+          <t>华商新兴活力灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.82</t>
+          <t>6.91</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.93</t>
+          <t>92.28</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.17</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4173</t>
+          <t>0.2778</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -828,36 +830,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011851</t>
+          <t>630008</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天弘先进制造混合型证券投资基金A</t>
+          <t>华商策略精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.05</t>
+          <t>76.99</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1598</t>
+          <t>0.1724</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -866,36 +868,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001933</t>
+          <t>011851</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华商新兴活力灵活配置混合</t>
+          <t>天弘先进制造混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.98</t>
+          <t>91.41</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.15</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1494</t>
+          <t>0.1368</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -914,22 +916,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>85.05</t>
+          <t>91.41</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0331</t>
+          <t>0.0352</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -941,7 +943,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1187,7 +1189,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1214,7 +1216,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1244,36 +1246,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001933</t>
+          <t>001822</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华商新兴活力灵活配置混合</t>
+          <t>华商智能生活灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.91</t>
+          <t>5.82</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.28</t>
+          <t>92.93</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>7.17</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2778</t>
+          <t>0.4173</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1282,36 +1284,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>630008</t>
+          <t>011851</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华商策略精选混合</t>
+          <t>天弘先进制造混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>76.99</t>
+          <t>85.05</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1724</t>
+          <t>0.1598</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1320,36 +1322,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011851</t>
+          <t>001933</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天弘先进制造混合型证券投资基金A</t>
+          <t>华商新兴活力灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.41</t>
+          <t>91.98</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>7.15</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1368</t>
+          <t>0.1494</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1368,196 +1370,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.41</t>
+          <t>85.05</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0352</t>
+          <t>0.0331</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>630008</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华商策略精选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>78.61</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2405</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>011851</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>天弘先进制造混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>83.51</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1428</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>011852</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>天弘先进制造混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>83.51</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0351</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1571,112 +1403,280 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>011851</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3466</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007202</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1844</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>420005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1748</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001822</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0974</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001933</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商新兴活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011852</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>72.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.87</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688551-科威尔.xlsx
+++ b/数据整理/stocks/A股/科创板/688551-科威尔.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.62</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.91</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.76</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.87</v>
       </c>
     </row>
@@ -566,6 +583,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>630008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商策略精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2430</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011851</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0864</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011852</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001744</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安进取回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -735,7 +960,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -943,7 +1168,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1189,7 +1414,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1397,7 +1622,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688551-科威尔.xlsx
+++ b/数据整理/stocks/A股/科创板/688551-科威尔.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>0.37</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.62</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.91</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.76</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.87</v>
       </c>
     </row>
@@ -583,6 +600,480 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>630008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商策略精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3242</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010994</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时创新经济混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1706</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>320022</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安研究精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1451</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011851</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1213</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010995</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时创新经济混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>016336</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时卓远成长一年持有期股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>51.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013603</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达均衡优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011852</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.28</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001744</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺安进取回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>69.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>016337</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时卓远成长一年持有期股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>51.15</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013604</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达均衡优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -790,7 +1281,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -960,7 +1451,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1168,7 +1659,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1414,7 +1905,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1622,7 +2113,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
